--- a/PO/OpenpyxlPO/newfile2.xlsx
+++ b/PO/OpenpyxlPO/newfile2.xlsx
@@ -1,36 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\51\python\project\PO\OpenpyxlPO\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12384"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mySheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mySheet2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mySheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
+    <sheet name="mySheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="mySheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="mySheet3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,11 +60,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -123,6 +135,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -134,7 +154,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -410,55 +430,696 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>1</v>
+      </c>
+      <c r="H1">
+        <v>1</v>
+      </c>
+      <c r="I1">
+        <v>1</v>
+      </c>
+      <c r="J1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>